--- a/biology/Zoologie/Clossiana/Clossiana.xlsx
+++ b/biology/Zoologie/Clossiana/Clossiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taxon Clossiana est, en fonction des sources, un sous-genre ou un genre de lépidoptères appartenant à la famille des Nymphalidae et à la sous-famille des Heliconiinae.
 De répartition holarctique, il comprend une trentaine d'espèces.
@@ -512,11 +524,13 @@
           <t>Systématique et phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taxon Clossiana a été décrit par Albert Franz Theodor Reuss en 1920[1] en tant que genre, avec pour espèce type Clossiana selene.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon Clossiana a été décrit par Albert Franz Theodor Reuss en 1920 en tant que genre, avec pour espèce type Clossiana selene.
 Actuellement, il est le plus souvent considéré comme un sous-genre du genre Boloria, mais son statut est débattu : de nombreux auteurs le traitent encore comme un genre à part entière, et d'autres synonymisent le nom Clossiana avec Boloria.   
-Des études sur la phylogénie de ce groupe menées dans les années 2000, considérant les taxons Clossiana et Proclossiana comme des sous-genres du genre Boloria, ont montré que Clossiana est monophylétique et est le groupe frère d'un clade réunissant les sous-genres Boloria s. str. et Proclossiana[2],[3].
+Des études sur la phylogénie de ce groupe menées dans les années 2000, considérant les taxons Clossiana et Proclossiana comme des sous-genres du genre Boloria, ont montré que Clossiana est monophylétique et est le groupe frère d'un clade réunissant les sous-genres Boloria s. str. et Proclossiana,.
 </t>
         </is>
       </c>
@@ -545,17 +559,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boloria (Clossiana) alberta (Edwards, 1890) — Tchoukotka, Nord-Ouest de l'Amérique du Nord
 Boloria (Clossiana) angarensis (Erschoff, 1870) — Sibérie, Chine, Corée
-Boloria (Clossiana) astarte (Doubleday, [1848]) — Nord-Ouest de l'Amérique du Nord
+Boloria (Clossiana) astarte (Doubleday, ) — Nord-Ouest de l'Amérique du Nord
 Boloria (Clossiana) bellona (Fabricius, 1775) — le Boloria des prés — Nord de l'Amérique du Nord
 Boloria (Clossiana) butleri (Edwards, 1883) — Tchoukotka, Amérique arctique — statut incertain, souvent considérée comme une sous-espèce de B. chariclea
 Boloria (Clossiana) chariclea (Schneider, 1794) — le Nacré lapon — Eurasie arctique, Nord de l'Amérique du Nord
 Boloria (Clossiana) dia (Linnaeus, 1767) — la Petite violette — Eurasie tempérée
-Boloria (Clossiana) distincta (Gibson, 1920) — Sibérie, Alaska, Canada — statut incertain, souvent considérée comme une sous-espèce de B. astarte[4]
-Boloria (Clossiana) elatus (Staudinger, 1892) — Transbaïkalie — statut incertain, souvent considérée comme une sous-espèce de B. tritonia[5]
+Boloria (Clossiana) distincta (Gibson, 1920) — Sibérie, Alaska, Canada — statut incertain, souvent considérée comme une sous-espèce de B. astarte
+Boloria (Clossiana) elatus (Staudinger, 1892) — Transbaïkalie — statut incertain, souvent considérée comme une sous-espèce de B. tritonia
 Boloria (Clossiana) epithore (Edwards, 1864) — Ouest de l'Amérique du Nord
 Boloria (Clossiana) erda (Christoph, 1893) — Nord-Est de l'Asie
 Boloria (Clossiana) erubescens (Staudinger, 1901) (= hegemone Staudinger, 1881) — Asie centrale
@@ -575,7 +591,7 @@
 Boloria (Clossiana) selene ([Denis &amp; Schiffermüller], 1775) — le Petit collier argenté — Eurasie tempérée et boréale, Amérique du Nord
 Boloria (Clossiana) selenis (Eversmann, 1837) — Nord et Nord-Est de l'Asie
 Boloria (Clossiana) thore (Hübner, 1803) — le Nacré noirâtre — Alpes, Scandinavie, Asie centrale et orientale
-Boloria (Clossiana) titania (Esper, [1793]) — le Nacré porphyrin — Eurasie tempérée
+Boloria (Clossiana) titania (Esper, ) — le Nacré porphyrin — Eurasie tempérée
 Boloria (Clossiana) tritonia (Böber, 1812) — du lac Baïkal à l'Oussouri
 			Boloria (Clossiana) bellona
 			Boloria (Clossiana) chariclea
